--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/14 Dhulorujir Khal/CS of Dhulorujir khal.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/14 Dhulorujir Khal/CS of Dhulorujir khal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="4215" windowWidth="18435" windowHeight="11385" tabRatio="845"/>
+    <workbookView xWindow="3045" yWindow="4215" windowWidth="18435" windowHeight="11385" tabRatio="845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Long section Dhulorujir khal" sheetId="18" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Long section Dhulorujir khal'!$A$1:$AB$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Offtake khal'!$A$1:$U$59</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1008,6 +1008,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1058,24 +1076,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,12 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -1116,10 +1110,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1565,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197404928"/>
-        <c:axId val="197411584"/>
+        <c:axId val="45149184"/>
+        <c:axId val="145889152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197404928"/>
+        <c:axId val="45149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197411584"/>
+        <c:crossAx val="145889152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197411584"/>
+        <c:axId val="145889152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197404928"/>
+        <c:crossAx val="45149184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2132,11 +2132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205139328"/>
-        <c:axId val="205149312"/>
+        <c:axId val="144251520"/>
+        <c:axId val="144261504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205139328"/>
+        <c:axId val="144251520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2182,12 +2182,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205149312"/>
+        <c:crossAx val="144261504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205149312"/>
+        <c:axId val="144261504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205139328"/>
+        <c:crossAx val="144251520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2588,11 +2588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205182848"/>
-        <c:axId val="205184384"/>
+        <c:axId val="144282752"/>
+        <c:axId val="144284288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205182848"/>
+        <c:axId val="144282752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2638,12 +2638,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205184384"/>
+        <c:crossAx val="144284288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205184384"/>
+        <c:axId val="144284288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205182848"/>
+        <c:crossAx val="144282752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,11 +2990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205739904"/>
-        <c:axId val="205741440"/>
+        <c:axId val="144299136"/>
+        <c:axId val="144300672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205739904"/>
+        <c:axId val="144299136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3040,12 +3040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205741440"/>
+        <c:crossAx val="144300672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205741440"/>
+        <c:axId val="144300672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205739904"/>
+        <c:crossAx val="144299136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3422,11 +3422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205783424"/>
-        <c:axId val="205784960"/>
+        <c:axId val="144309632"/>
+        <c:axId val="144422016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205783424"/>
+        <c:axId val="144309632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3472,12 +3472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205784960"/>
+        <c:crossAx val="144422016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205784960"/>
+        <c:axId val="144422016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,7 +3522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205783424"/>
+        <c:crossAx val="144309632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3854,11 +3854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205806208"/>
-        <c:axId val="205812096"/>
+        <c:axId val="144631680"/>
+        <c:axId val="144633216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205806208"/>
+        <c:axId val="144631680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3904,12 +3904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205812096"/>
+        <c:crossAx val="144633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205812096"/>
+        <c:axId val="144633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205806208"/>
+        <c:crossAx val="144631680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4292,11 +4292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205845632"/>
-        <c:axId val="205847168"/>
+        <c:axId val="144667008"/>
+        <c:axId val="144668544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205845632"/>
+        <c:axId val="144667008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4342,12 +4342,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205847168"/>
+        <c:crossAx val="144668544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205847168"/>
+        <c:axId val="144668544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,7 +4392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205845632"/>
+        <c:crossAx val="144667008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4724,11 +4724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205880704"/>
-        <c:axId val="205886592"/>
+        <c:axId val="144681600"/>
+        <c:axId val="144687488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205880704"/>
+        <c:axId val="144681600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4774,12 +4774,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205886592"/>
+        <c:crossAx val="144687488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205886592"/>
+        <c:axId val="144687488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4824,7 +4824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205880704"/>
+        <c:crossAx val="144681600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5144,11 +5144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205985664"/>
-        <c:axId val="205987200"/>
+        <c:axId val="144700544"/>
+        <c:axId val="144702080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205985664"/>
+        <c:axId val="144700544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5194,12 +5194,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205987200"/>
+        <c:crossAx val="144702080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205987200"/>
+        <c:axId val="144702080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205985664"/>
+        <c:crossAx val="144700544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5546,11 +5546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206008704"/>
-        <c:axId val="206010240"/>
+        <c:axId val="144747904"/>
+        <c:axId val="144749696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206008704"/>
+        <c:axId val="144747904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5596,12 +5596,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206010240"/>
+        <c:crossAx val="144749696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206010240"/>
+        <c:axId val="144749696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206008704"/>
+        <c:crossAx val="144747904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5892,11 +5892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206094336"/>
-        <c:axId val="206095872"/>
+        <c:axId val="144976512"/>
+        <c:axId val="144990592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206094336"/>
+        <c:axId val="144976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5942,12 +5942,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206095872"/>
+        <c:crossAx val="144990592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206095872"/>
+        <c:axId val="144990592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5992,7 +5992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206094336"/>
+        <c:crossAx val="144976512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6250,11 +6250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197722112"/>
-        <c:axId val="197723648"/>
+        <c:axId val="147861888"/>
+        <c:axId val="147863424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197722112"/>
+        <c:axId val="147861888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6300,12 +6300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197723648"/>
+        <c:crossAx val="147863424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197723648"/>
+        <c:axId val="147863424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,7 +6350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197722112"/>
+        <c:crossAx val="147861888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6608,11 +6608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206846208"/>
-        <c:axId val="206852096"/>
+        <c:axId val="145003648"/>
+        <c:axId val="145005184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206846208"/>
+        <c:axId val="145003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6658,12 +6658,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206852096"/>
+        <c:crossAx val="145005184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206852096"/>
+        <c:axId val="145005184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6708,7 +6708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206846208"/>
+        <c:crossAx val="145003648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6966,11 +6966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206874112"/>
-        <c:axId val="206875648"/>
+        <c:axId val="145162624"/>
+        <c:axId val="145164160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206874112"/>
+        <c:axId val="145162624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7016,12 +7016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206875648"/>
+        <c:crossAx val="145164160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206875648"/>
+        <c:axId val="145164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,7 +7066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206874112"/>
+        <c:crossAx val="145162624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7324,11 +7324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206187520"/>
-        <c:axId val="206193408"/>
+        <c:axId val="145184640"/>
+        <c:axId val="145186176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206187520"/>
+        <c:axId val="145184640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7374,12 +7374,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206193408"/>
+        <c:crossAx val="145186176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206193408"/>
+        <c:axId val="145186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7424,7 +7424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206187520"/>
+        <c:crossAx val="145184640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7658,11 +7658,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206239232"/>
-        <c:axId val="206240768"/>
+        <c:axId val="145215872"/>
+        <c:axId val="145217408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206239232"/>
+        <c:axId val="145215872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7708,12 +7708,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206240768"/>
+        <c:crossAx val="145217408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206240768"/>
+        <c:axId val="145217408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,7 +7758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206239232"/>
+        <c:crossAx val="145215872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8004,11 +8004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206934016"/>
-        <c:axId val="206935552"/>
+        <c:axId val="145226368"/>
+        <c:axId val="145621376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206934016"/>
+        <c:axId val="145226368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8054,12 +8054,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206935552"/>
+        <c:crossAx val="145621376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206935552"/>
+        <c:axId val="145621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8104,7 +8104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206934016"/>
+        <c:crossAx val="145226368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8350,11 +8350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206956800"/>
-        <c:axId val="206958592"/>
+        <c:axId val="145642624"/>
+        <c:axId val="145644160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206956800"/>
+        <c:axId val="145642624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8400,12 +8400,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206958592"/>
+        <c:crossAx val="145644160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206958592"/>
+        <c:axId val="145644160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8450,7 +8450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206956800"/>
+        <c:crossAx val="145642624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8696,11 +8696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206672640"/>
-        <c:axId val="206674176"/>
+        <c:axId val="145661312"/>
+        <c:axId val="145671296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206672640"/>
+        <c:axId val="145661312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8746,12 +8746,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206674176"/>
+        <c:crossAx val="145671296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206674176"/>
+        <c:axId val="145671296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8796,7 +8796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206672640"/>
+        <c:crossAx val="145661312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9042,11 +9042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206695424"/>
-        <c:axId val="206770944"/>
+        <c:axId val="145901440"/>
+        <c:axId val="145902976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206695424"/>
+        <c:axId val="145901440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9092,12 +9092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206770944"/>
+        <c:crossAx val="145902976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206770944"/>
+        <c:axId val="145902976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9142,7 +9142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206695424"/>
+        <c:crossAx val="145901440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9394,11 +9394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206812672"/>
-        <c:axId val="206814208"/>
+        <c:axId val="145932672"/>
+        <c:axId val="145934208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206812672"/>
+        <c:axId val="145932672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9444,12 +9444,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206814208"/>
+        <c:crossAx val="145934208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206814208"/>
+        <c:axId val="145934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9494,7 +9494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206812672"/>
+        <c:crossAx val="145932672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9734,11 +9734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207229696"/>
-        <c:axId val="207231232"/>
+        <c:axId val="145956224"/>
+        <c:axId val="145958016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207229696"/>
+        <c:axId val="145956224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9784,12 +9784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207231232"/>
+        <c:crossAx val="145958016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207231232"/>
+        <c:axId val="145958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9834,7 +9834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207229696"/>
+        <c:crossAx val="145956224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10086,11 +10086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197736704"/>
-        <c:axId val="197742592"/>
+        <c:axId val="148866560"/>
+        <c:axId val="148868096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197736704"/>
+        <c:axId val="148866560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10136,12 +10136,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197742592"/>
+        <c:crossAx val="148868096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197742592"/>
+        <c:axId val="148868096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10186,7 +10186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197736704"/>
+        <c:crossAx val="148866560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10438,11 +10438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197777664"/>
-        <c:axId val="198246400"/>
+        <c:axId val="149449728"/>
+        <c:axId val="149508864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197777664"/>
+        <c:axId val="149449728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10488,12 +10488,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198246400"/>
+        <c:crossAx val="149508864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198246400"/>
+        <c:axId val="149508864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10538,7 +10538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197777664"/>
+        <c:crossAx val="149449728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10850,11 +10850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197930368"/>
-        <c:axId val="197932160"/>
+        <c:axId val="150167936"/>
+        <c:axId val="151486464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197930368"/>
+        <c:axId val="150167936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10900,12 +10900,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197932160"/>
+        <c:crossAx val="151486464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197932160"/>
+        <c:axId val="151486464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10950,7 +10950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197930368"/>
+        <c:crossAx val="150167936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11268,11 +11268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166725888"/>
-        <c:axId val="197959680"/>
+        <c:axId val="257573248"/>
+        <c:axId val="257575168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166725888"/>
+        <c:axId val="257573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11318,12 +11318,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197959680"/>
+        <c:crossAx val="257575168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197959680"/>
+        <c:axId val="257575168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11368,7 +11368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166725888"/>
+        <c:crossAx val="257573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11686,11 +11686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198270976"/>
-        <c:axId val="198272512"/>
+        <c:axId val="143965184"/>
+        <c:axId val="143966976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198270976"/>
+        <c:axId val="143965184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11736,12 +11736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198272512"/>
+        <c:crossAx val="143966976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198272512"/>
+        <c:axId val="143966976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11786,7 +11786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198270976"/>
+        <c:crossAx val="143965184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12124,11 +12124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198058368"/>
-        <c:axId val="198059904"/>
+        <c:axId val="144096640"/>
+        <c:axId val="144106624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198058368"/>
+        <c:axId val="144096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12174,12 +12174,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198059904"/>
+        <c:crossAx val="144106624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198059904"/>
+        <c:axId val="144106624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12224,7 +12224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198058368"/>
+        <c:crossAx val="144096640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12586,11 +12586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198089344"/>
-        <c:axId val="198103424"/>
+        <c:axId val="144168832"/>
+        <c:axId val="144170368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198089344"/>
+        <c:axId val="144168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -12636,12 +12636,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198103424"/>
+        <c:crossAx val="144170368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198103424"/>
+        <c:axId val="144170368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12686,7 +12686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198089344"/>
+        <c:crossAx val="144168832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12760,7 +12760,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12803,7 +12803,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8FF7218-DFF7-4357-8330-519C8E2164C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12841,7 +12841,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37AE6D2E-5661-462A-B4C4-0B2DE1EF60C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12879,7 +12879,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E780CEE0-AD9C-4FED-9989-52AB769078DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12922,7 +12922,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F5B9975-A85D-46E4-B500-C1CB1A0287C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12960,7 +12960,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24E05792-92F2-4222-ADCF-CF542C0EC697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12998,7 +12998,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21406F6B-21F4-419D-9B29-E3B1529C0482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13041,7 +13041,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13079,7 +13079,7 @@
         <xdr:cNvPr id="36" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13117,7 +13117,7 @@
         <xdr:cNvPr id="37" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13155,7 +13155,7 @@
         <xdr:cNvPr id="38" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13193,7 +13193,7 @@
         <xdr:cNvPr id="39" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13231,7 +13231,7 @@
         <xdr:cNvPr id="40" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13269,7 +13269,7 @@
         <xdr:cNvPr id="41" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13307,7 +13307,7 @@
         <xdr:cNvPr id="42" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13345,7 +13345,7 @@
         <xdr:cNvPr id="43" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13383,7 +13383,7 @@
         <xdr:cNvPr id="44" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13421,7 +13421,7 @@
         <xdr:cNvPr id="45" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13464,7 +13464,7 @@
         <xdr:cNvPr id="5" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13597,7 +13597,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13749,7 +13749,7 @@
         <xdr:cNvPr id="7" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13905,7 +13905,7 @@
         <xdr:cNvPr id="2" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13943,7 +13943,7 @@
         <xdr:cNvPr id="3" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13981,7 +13981,7 @@
         <xdr:cNvPr id="4" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14019,7 +14019,7 @@
         <xdr:cNvPr id="5" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14057,7 +14057,7 @@
         <xdr:cNvPr id="6" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14095,7 +14095,7 @@
         <xdr:cNvPr id="7" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14133,7 +14133,7 @@
         <xdr:cNvPr id="8" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14171,7 +14171,7 @@
         <xdr:cNvPr id="9" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14209,7 +14209,7 @@
         <xdr:cNvPr id="10" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14247,7 +14247,7 @@
         <xdr:cNvPr id="11" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14285,7 +14285,7 @@
         <xdr:cNvPr id="12" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14600,7 +14600,7 @@
   </sheetPr>
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="M22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R34" sqref="R34:AB37"/>
     </sheetView>
   </sheetViews>
@@ -14943,15 +14943,15 @@
       <c r="A1" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="79"/>
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
@@ -15244,21 +15244,21 @@
     </row>
     <row r="7" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
       <c r="AB7" s="95"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -15364,77 +15364,77 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
-      <c r="R33" s="114" t="s">
+      <c r="R33" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="116"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="122"/>
     </row>
     <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
-      <c r="R34" s="117" t="s">
+      <c r="R34" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="119"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="124"/>
+      <c r="U34" s="124"/>
+      <c r="V34" s="124"/>
+      <c r="W34" s="124"/>
+      <c r="X34" s="124"/>
+      <c r="Y34" s="124"/>
+      <c r="Z34" s="124"/>
+      <c r="AA34" s="124"/>
+      <c r="AB34" s="125"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="122"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="128"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="121"/>
-      <c r="AA36" s="121"/>
-      <c r="AB36" s="122"/>
+      <c r="R36" s="126"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="127"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="128"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="124"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="124"/>
-      <c r="AA37" s="124"/>
-      <c r="AB37" s="125"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="131"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
@@ -15494,84 +15494,84 @@
     </row>
     <row r="42" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
-      <c r="R42" s="126" t="s">
+      <c r="R42" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="126" t="s">
+      <c r="S42" s="133"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="W42" s="127"/>
-      <c r="X42" s="127"/>
-      <c r="Y42" s="128"/>
-      <c r="Z42" s="126" t="s">
+      <c r="W42" s="133"/>
+      <c r="X42" s="133"/>
+      <c r="Y42" s="134"/>
+      <c r="Z42" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="128"/>
+      <c r="AA42" s="133"/>
+      <c r="AB42" s="134"/>
     </row>
     <row r="43" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
-      <c r="R43" s="129" t="s">
+      <c r="R43" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="S43" s="130"/>
-      <c r="T43" s="130"/>
-      <c r="U43" s="131"/>
-      <c r="V43" s="129" t="s">
+      <c r="S43" s="112"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="130"/>
-      <c r="X43" s="130"/>
-      <c r="Y43" s="131"/>
-      <c r="Z43" s="129" t="s">
+      <c r="W43" s="112"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="AA43" s="130"/>
-      <c r="AB43" s="131"/>
+      <c r="AA43" s="112"/>
+      <c r="AB43" s="113"/>
     </row>
     <row r="44" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
-      <c r="R44" s="129" t="s">
+      <c r="R44" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="S44" s="130"/>
-      <c r="T44" s="130"/>
-      <c r="U44" s="131"/>
-      <c r="V44" s="129" t="s">
+      <c r="S44" s="112"/>
+      <c r="T44" s="112"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="W44" s="130"/>
-      <c r="X44" s="130"/>
-      <c r="Y44" s="131"/>
-      <c r="Z44" s="129" t="s">
+      <c r="W44" s="112"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="AA44" s="130"/>
-      <c r="AB44" s="131"/>
+      <c r="AA44" s="112"/>
+      <c r="AB44" s="113"/>
       <c r="AC44" s="106"/>
     </row>
     <row r="45" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
-      <c r="R45" s="129" t="s">
+      <c r="R45" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="S45" s="130"/>
-      <c r="T45" s="130"/>
-      <c r="U45" s="131"/>
-      <c r="V45" s="129" t="s">
+      <c r="S45" s="112"/>
+      <c r="T45" s="112"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="130"/>
-      <c r="X45" s="130"/>
-      <c r="Y45" s="131"/>
-      <c r="Z45" s="129" t="s">
+      <c r="W45" s="112"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="AA45" s="130"/>
-      <c r="AB45" s="131"/>
+      <c r="AA45" s="112"/>
+      <c r="AB45" s="113"/>
       <c r="AC45" s="106"/>
     </row>
     <row r="46" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15592,23 +15592,23 @@
       <c r="O46" s="108"/>
       <c r="P46" s="108"/>
       <c r="Q46" s="108"/>
-      <c r="R46" s="132" t="s">
+      <c r="R46" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="S46" s="133"/>
-      <c r="T46" s="133"/>
-      <c r="U46" s="134"/>
-      <c r="V46" s="132" t="s">
+      <c r="S46" s="115"/>
+      <c r="T46" s="115"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="134"/>
-      <c r="Z46" s="132" t="s">
+      <c r="W46" s="115"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="134"/>
+      <c r="AA46" s="115"/>
+      <c r="AB46" s="116"/>
       <c r="AC46" s="109"/>
     </row>
     <row r="52" spans="18:28" x14ac:dyDescent="0.2">
@@ -15652,18 +15652,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R45:U45"/>
-    <mergeCell ref="V45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="R44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F7:R7"/>
     <mergeCell ref="R33:AB33"/>
@@ -15671,6 +15659,18 @@
     <mergeCell ref="R42:U42"/>
     <mergeCell ref="V42:Y42"/>
     <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="R44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="V45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -21948,21 +21948,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -22705,11 +22705,11 @@
       <c r="K21" s="19"/>
       <c r="L21" s="16"/>
       <c r="M21" s="19"/>
-      <c r="O21" s="143" t="s">
+      <c r="O21" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="145"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="143"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
@@ -22769,11 +22769,11 @@
       <c r="L24" s="16"/>
       <c r="M24" s="19"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="146" t="s">
+      <c r="O24" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="148"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="146"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
@@ -22952,10 +22952,10 @@
       <c r="E33" s="13"/>
       <c r="F33" s="16"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="141" t="s">
+      <c r="H33" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="141"/>
+      <c r="I33" s="147"/>
       <c r="J33" s="19">
         <f>G27</f>
         <v>21.062500000000004</v>
@@ -23754,9 +23754,9 @@
       <c r="K53" s="19"/>
       <c r="L53" s="16"/>
       <c r="M53" s="19"/>
-      <c r="O53" s="149"/>
-      <c r="P53" s="149"/>
-      <c r="Q53" s="149"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="148"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
@@ -23812,9 +23812,9 @@
         <v>6.1112750000000036</v>
       </c>
       <c r="N56" s="14"/>
-      <c r="O56" s="150"/>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="150"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="149"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
@@ -23953,10 +23953,10 @@
       <c r="E64" s="13"/>
       <c r="F64" s="16"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="141" t="s">
+      <c r="H64" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="141"/>
+      <c r="I64" s="147"/>
       <c r="J64" s="19">
         <f>G58</f>
         <v>15.307000000000002</v>
@@ -24970,10 +24970,10 @@
       <c r="E98" s="13"/>
       <c r="F98" s="16"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="141" t="s">
+      <c r="H98" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="141"/>
+      <c r="I98" s="147"/>
       <c r="J98" s="19">
         <f>G97</f>
         <v>14.244399999999999</v>
@@ -25976,10 +25976,10 @@
       <c r="E131" s="13"/>
       <c r="F131" s="16"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="141" t="s">
+      <c r="H131" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I131" s="141"/>
+      <c r="I131" s="147"/>
       <c r="J131" s="19">
         <f>G130</f>
         <v>12.849500000000001</v>
@@ -26788,10 +26788,10 @@
       <c r="E158" s="13"/>
       <c r="F158" s="16"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="141" t="s">
+      <c r="H158" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="141"/>
+      <c r="I158" s="147"/>
       <c r="J158" s="19">
         <f>G157</f>
         <v>24.611499999999999</v>
@@ -27633,10 +27633,10 @@
       <c r="E184" s="13"/>
       <c r="F184" s="16"/>
       <c r="G184" s="19"/>
-      <c r="H184" s="141" t="s">
+      <c r="H184" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I184" s="141"/>
+      <c r="I184" s="147"/>
       <c r="J184" s="19">
         <f>G183</f>
         <v>23.871500000000001</v>
@@ -28491,10 +28491,10 @@
       <c r="E210" s="13"/>
       <c r="F210" s="16"/>
       <c r="G210" s="19"/>
-      <c r="H210" s="141" t="s">
+      <c r="H210" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I210" s="141"/>
+      <c r="I210" s="147"/>
       <c r="J210" s="19">
         <f>G209</f>
         <v>8.6144999999999978</v>
@@ -29349,10 +29349,10 @@
       <c r="E236" s="13"/>
       <c r="F236" s="16"/>
       <c r="G236" s="19"/>
-      <c r="H236" s="141" t="s">
+      <c r="H236" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I236" s="141"/>
+      <c r="I236" s="147"/>
       <c r="J236" s="19">
         <f>G235</f>
         <v>3.5616000000000012</v>
@@ -29379,8 +29379,8 @@
       <c r="E237" s="19"/>
       <c r="F237" s="16"/>
       <c r="G237" s="19"/>
-      <c r="H237" s="141"/>
-      <c r="I237" s="141"/>
+      <c r="H237" s="147"/>
+      <c r="I237" s="147"/>
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
       <c r="L237" s="16"/>
@@ -30228,10 +30228,10 @@
       <c r="E264" s="13"/>
       <c r="F264" s="16"/>
       <c r="G264" s="19"/>
-      <c r="H264" s="141" t="s">
+      <c r="H264" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I264" s="141"/>
+      <c r="I264" s="147"/>
       <c r="J264" s="19">
         <f>G263</f>
         <v>13.012</v>
@@ -31047,10 +31047,10 @@
       <c r="E290" s="13"/>
       <c r="F290" s="16"/>
       <c r="G290" s="19"/>
-      <c r="H290" s="141" t="s">
+      <c r="H290" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I290" s="141"/>
+      <c r="I290" s="147"/>
       <c r="J290" s="19">
         <f>G289</f>
         <v>11.528000000000002</v>
@@ -31846,10 +31846,10 @@
       <c r="E317" s="13"/>
       <c r="F317" s="16"/>
       <c r="G317" s="19"/>
-      <c r="H317" s="141" t="s">
+      <c r="H317" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I317" s="141"/>
+      <c r="I317" s="147"/>
       <c r="J317" s="16">
         <f>G316</f>
         <v>9.1334999999999997</v>
@@ -31871,11 +31871,35 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="I293:M293"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="I212:M212"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="I134:M134"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="B186:G186"/>
+    <mergeCell ref="B240:G240"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="H290:I290"/>
+    <mergeCell ref="B266:G266"/>
+    <mergeCell ref="I266:M266"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="I186:M186"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="I240:M240"/>
     <mergeCell ref="D292:E292"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="H237:I237"/>
@@ -31892,35 +31916,11 @@
     <mergeCell ref="I160:M160"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="I66:M66"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="B186:G186"/>
-    <mergeCell ref="B240:G240"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="H290:I290"/>
-    <mergeCell ref="B266:G266"/>
-    <mergeCell ref="I266:M266"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="I186:M186"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="I240:M240"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="I293:M293"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="I212:M212"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="I134:M134"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="O56:Q56"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
@@ -32874,10 +32874,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:V202"/>
+  <dimension ref="A1:V859"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33280,28 +33280,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
     </row>
@@ -33982,10 +33982,10 @@
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="61"/>
-      <c r="H19" s="141" t="s">
+      <c r="H19" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="141"/>
+      <c r="I19" s="147"/>
       <c r="J19" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -34749,10 +34749,10 @@
       <c r="E38" s="64"/>
       <c r="F38" s="63"/>
       <c r="G38" s="61"/>
-      <c r="H38" s="141" t="s">
+      <c r="H38" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="141"/>
+      <c r="I38" s="147"/>
       <c r="J38" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -36838,10 +36838,10 @@
       <c r="E95" s="64"/>
       <c r="F95" s="63"/>
       <c r="G95" s="61"/>
-      <c r="H95" s="141" t="s">
+      <c r="H95" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I95" s="141"/>
+      <c r="I95" s="147"/>
       <c r="J95" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -37458,10 +37458,10 @@
       <c r="E111" s="64"/>
       <c r="F111" s="63"/>
       <c r="G111" s="61"/>
-      <c r="H111" s="141" t="s">
+      <c r="H111" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="141"/>
+      <c r="I111" s="147"/>
       <c r="J111" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -40693,10 +40693,10 @@
       <c r="E202" s="64"/>
       <c r="F202" s="63"/>
       <c r="G202" s="61"/>
-      <c r="H202" s="141" t="s">
+      <c r="H202" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="I202" s="141"/>
+      <c r="I202" s="147"/>
       <c r="J202" s="63">
         <f>G201</f>
         <v>9.1334999999999997</v>
@@ -40716,17 +40716,659 @@
       <c r="O202" s="14"/>
       <c r="P202" s="14"/>
     </row>
+    <row r="209" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:M21"/>
     <mergeCell ref="H202:I202"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D161:E161"/>
@@ -40743,6 +41385,15 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:M21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
